--- a/biology/Zoologie/Hormiops/Hormiops.xlsx
+++ b/biology/Zoologie/Hormiops/Hormiops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hormiops est un genre de scorpions de la famille des Hormuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Viêt Nam et en Malaisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Viêt Nam et en Malaisie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (18/06/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (18/06/2020) :
 Hormiops davidovi Fage, 1933
 Hormiops infulcra Monod, 2014</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été placé en synonymie avec Liocheles par Lourenço en 1989[3]. Il est relevé de cette synonymie par Lourenço et Monod en 1999[4]. Prendini en 2000[5] l'y replace puis Monod et Prendini en 2015[6] le rétablissent.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été placé en synonymie avec Liocheles par Lourenço en 1989. Il est relevé de cette synonymie par Lourenço et Monod en 1999. Prendini en 2000 l'y replace puis Monod et Prendini en 2015 le rétablissent.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fage, 1933 : Les Scorpions de l'Indochine française, leurs affinités, leur distribution géographique. Annales de la Société Entomologique de France, vol. 102, p. 25–35.</t>
         </is>
